--- a/Emissao/Dados_Emissao/Editado/Amanda_Goncalves_dos_Santos.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Amanda_Goncalves_dos_Santos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AB65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,17 +564,18 @@
           <t>Frota Itens</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>531</v>
-      </c>
-      <c r="C2" t="n">
-        <v>990</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>492900</t>
@@ -585,51 +586,17 @@
           <t>ABIB &amp; ABIB CORRETORA DE SEGUROS</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>294946</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>MARIA SALETE DE FREITAS</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-10-19</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-10-19</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.572,89</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.762,76</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
@@ -671,12 +638,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -748,6 +716,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -819,6 +792,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -890,17 +868,18 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>531</v>
-      </c>
-      <c r="C6" t="n">
-        <v>927</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>402597</t>
@@ -911,51 +890,17 @@
           <t>ALOEF CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>12992</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>RENATO LOT</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-10-13</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 701,11</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 752,81</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
@@ -997,12 +942,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1074,6 +1020,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1145,6 +1096,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1216,6 +1172,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1287,6 +1248,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1358,6 +1324,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1429,6 +1400,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1500,6 +1476,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1571,17 +1552,18 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>531</v>
-      </c>
-      <c r="C15" t="n">
-        <v>990</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>403476</t>
@@ -1592,51 +1574,17 @@
           <t>CARLOS E DEMAIS COR DE SEGS LTDA</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>294714</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>CLAUDIA DE CAMPOS MAZZARI LIMA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.953,17</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.171,11</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
@@ -1678,12 +1626,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1755,6 +1704,11 @@
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1826,6 +1780,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1897,6 +1856,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1968,6 +1932,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2039,6 +2008,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2110,6 +2084,11 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2181,6 +2160,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2252,6 +2236,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2323,6 +2312,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2394,6 +2388,11 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2465,6 +2464,11 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2536,6 +2540,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2607,17 +2616,18 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>531</v>
-      </c>
-      <c r="C29" t="n">
-        <v>990</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>488160</t>
@@ -2628,51 +2638,17 @@
           <t>GASPARSEG ASSESSORIA E CORR DE S</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>294584</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>MARIA APARECIDA NAZARIO</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.506,66</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.765,45</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
@@ -2714,12 +2690,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2791,6 +2768,11 @@
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2862,6 +2844,11 @@
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2933,17 +2920,18 @@
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>531</v>
-      </c>
-      <c r="C33" t="n">
-        <v>990</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>436053</t>
@@ -2954,51 +2942,17 @@
           <t>KEITE COPPOLA DOS SANTOS</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>294295</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>THIAGO ALVES BARBOZA</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>6</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.292,22</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.461,38</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
@@ -3040,78 +2994,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>990</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>436053</t>
+          <t>486449</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KEITE COPPOLA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>294897</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>PEREIRA LIMA E SILVA LTDA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-09-21</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-09-21</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.283,84</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.452,38</t>
-        </is>
-      </c>
+          <t>L. BRITO CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
@@ -3153,78 +3070,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>531</v>
-      </c>
-      <c r="C35" t="n">
-        <v>990</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>486449</t>
+          <t>404040</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>L. BRITO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>294226</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>RAFAEL POSTAL</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.085,59</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.165,70</t>
-        </is>
-      </c>
+          <t>LAXMI CORRETORA E ADM DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
@@ -3266,78 +3146,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>531</v>
-      </c>
-      <c r="C36" t="n">
-        <v>990</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>486449</t>
+          <t>440758</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>L. BRITO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>294653</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>JABSON PORTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>10</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.682,15</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.880,09</t>
-        </is>
-      </c>
+          <t>LILIAN DA SILVA BRITO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
@@ -3379,78 +3222,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>531</v>
-      </c>
-      <c r="C37" t="n">
-        <v>990</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>486449</t>
+          <t>400367</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>L. BRITO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>294749</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ERIK BRESCHAK HUDOROVICH</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.605,77</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.945,67</t>
-        </is>
-      </c>
+          <t>LUCIANA MARIA CAPPELLANO WAACK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
@@ -3492,78 +3298,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>531</v>
-      </c>
-      <c r="C38" t="n">
-        <v>990</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>486449</t>
+          <t>400851</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>L. BRITO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>294885</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>JULIO PEREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>10</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.427,59</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.754,34</t>
-        </is>
-      </c>
+          <t>LUIZ FERNANDO BERNARDI PELLIN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
@@ -3605,78 +3374,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>531</v>
-      </c>
-      <c r="C39" t="n">
-        <v>990</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>404040</t>
+          <t>400617</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LAXMI CORRETORA E ADM DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>294278</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>MICHELE REZENDE TOBIAS</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>10</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.903,15</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.043,60</t>
-        </is>
-      </c>
+          <t>MARCELLA STORANI</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
@@ -3718,12 +3450,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3733,12 +3466,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>440758</t>
+          <t>400408</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LILIAN DA SILVA BRITO</t>
+          <t>MARCIO FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3795,6 +3528,11 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3804,12 +3542,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>400367</t>
+          <t>400170</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LUCIANA MARIA CAPPELLANO WAACK</t>
+          <t>MARCO ANTONIO TREVISAN ARANTES</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -3866,6 +3604,11 @@
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3875,12 +3618,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>400851</t>
+          <t>488050</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LUIZ FERNANDO BERNARDI PELLIN</t>
+          <t>MARIA PAULA RIBEIRO CONTENTO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3937,72 +3680,39 @@
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>531</v>
-      </c>
-      <c r="C43" t="n">
-        <v>990</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>400617</t>
+          <t>414851</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MARCELLA STORANI</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>294570</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>THAMA CHRISTIE THOMAZ LANZONI</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2024-10-16</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>12</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.958,25</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.102,76</t>
-        </is>
-      </c>
+          <t>MARILENE NEGRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
@@ -4044,12 +3754,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4059,12 +3770,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>400408</t>
+          <t>400204</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MARCIO FERREIRA DA SILVA</t>
+          <t>MAURICIO LOPES</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -4121,6 +3832,11 @@
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4130,12 +3846,12 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>400170</t>
+          <t>508795</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO TREVISAN ARANTES</t>
+          <t>MEM CORRETAGEM DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4152,12 +3868,12 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>916</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>CAMPINAS MERCADO</t>
+          <t>JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4192,72 +3908,39 @@
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>926</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>488050</t>
+          <t>506074</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MARIA PAULA RIBEIRO CONTENTO</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>6662</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>PR2 EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 269,43</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 289,30</t>
-        </is>
-      </c>
+          <t>MUTUAL CORRETORA DE SEGUROS EIRE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
@@ -4299,78 +3982,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>531</v>
-      </c>
-      <c r="C47" t="n">
-        <v>990</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>488050</t>
+          <t>486370</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MARIA PAULA RIBEIRO CONTENTO</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>294193</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>JOAO ROBERTO TIOL</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>10</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.297,21</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.466,74</t>
-        </is>
-      </c>
+          <t>ON SEGUROS CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
@@ -4412,40 +4058,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>531</v>
+      </c>
+      <c r="C48" t="n">
+        <v>990</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>414851</t>
+          <t>401433</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MARILENE NEGRO DA SILVA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+          <t>OSMIL CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>296838</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>J FERRES IND E COM DE EMB LTDA</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.810,78</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.944,41</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
@@ -4487,74 +4172,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>531</v>
-      </c>
-      <c r="C49" t="n">
-        <v>990</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>400204</t>
+          <t>484643</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MAURICIO LOPES</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>294723</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>RAFAEL SAMPAIO APIS</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.283,48</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.452,00</t>
-        </is>
-      </c>
+          <t>PERESSINOTTO E DIAS CORR DE SEG</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
@@ -4596,12 +4248,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4611,12 +4264,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>508795</t>
+          <t>403687</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MEM CORRETAGEM DE SEGUROS LTDA</t>
+          <t>PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -4633,12 +4286,12 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>911</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>JUNDIAI MERCADO</t>
+          <t>CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4673,72 +4326,39 @@
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>531</v>
-      </c>
-      <c r="C51" t="n">
-        <v>927</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>506074</t>
+          <t>485867</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MUTUAL CORRETORA DE SEGUROS EIRE</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>54778</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ELIMARA GRACIELE DO ROSARIO LIMA</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>8</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 296,88</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 318,72</t>
-        </is>
-      </c>
+          <t>PRISCILA VISACRE CORR DE SEGS -</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
@@ -4780,78 +4400,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>531</v>
-      </c>
-      <c r="C52" t="n">
-        <v>927</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>486370</t>
+          <t>403951</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON SEGUROS - CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>54716</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>VITOR PACHECO RUBIN</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>8</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 772,64</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 829,60</t>
-        </is>
-      </c>
+          <t>REGULUS LEONIS CORRETORA DE SEG</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
@@ -4893,78 +4476,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>531</v>
-      </c>
-      <c r="C53" t="n">
-        <v>927</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>486370</t>
+          <t>400212</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON SEGUROS - CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>54977</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ANIBAL DE MIRANDA VALVERDE</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 736,01</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 790,32</t>
-        </is>
-      </c>
+          <t>REINALDO PORTELLA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
@@ -5006,78 +4552,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>531</v>
-      </c>
-      <c r="C54" t="n">
-        <v>990</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>486370</t>
+          <t>400423</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON SEGUROS - CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>294579</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ANGELA NALDI GATTI</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>10</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.842,91</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.978,91</t>
-        </is>
-      </c>
+          <t>ROGERIO DOS REIS GARCIA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
@@ -5119,12 +4628,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5134,12 +4644,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>401433</t>
+          <t>414740</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OSMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>RSXP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -5196,34 +4706,77 @@
       </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>531</v>
+      </c>
+      <c r="C56" t="n">
+        <v>990</v>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>484643</t>
+          <t>524633</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PERESSINOTTO E DIAS CORR DE SEG</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+          <t>Ramos e Verza Corretora de Segur</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>296816</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>JAIR FERNANDO DA SILVA MARQUES</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.356,80</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.530,73</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
@@ -5265,74 +4818,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>531</v>
-      </c>
-      <c r="C57" t="n">
-        <v>990</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>403687</t>
+          <t>526091</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PRINCESA D OESTE ASS ADM CORR SE</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>294271</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>VALTER BUENO ROQUE</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>5</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.162,40</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.321,98</t>
-        </is>
-      </c>
+          <t>S TAFFURI CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
@@ -5374,12 +4894,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5389,12 +4910,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>485867</t>
+          <t>428940</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PRISCILA VISACRE CORR DE SEGS -</t>
+          <t>SANTOS JUNIO CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -5451,6 +4972,11 @@
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5460,12 +4986,12 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>403951</t>
+          <t>400881</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>REGULUS LEONIS CORRETORA DE SEG</t>
+          <t>SEVERINO FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -5522,6 +5048,11 @@
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5531,12 +5062,12 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>400212</t>
+          <t>485561</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>REINALDO PORTELLA</t>
+          <t>SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -5593,72 +5124,39 @@
       </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>531</v>
-      </c>
-      <c r="C61" t="n">
-        <v>990</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>400423</t>
+          <t>508528</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ROGERIO DOS REIS GARCIA</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>294551</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>JOEL CARLOS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>6</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.021,93</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.244,94</t>
-        </is>
-      </c>
+          <t>STAHL CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
@@ -5700,78 +5198,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>531</v>
-      </c>
-      <c r="C62" t="n">
-        <v>990</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>414740</t>
+          <t>437267</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RSXP CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>294635</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>REGINA PATRICIA AREIAS MAFRA</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>10</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.075,67</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.228,85</t>
-        </is>
-      </c>
+          <t>SUPINO CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
@@ -5813,78 +5274,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>990</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>524633</t>
+          <t>404259</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ramos e Verza Corretora de Segur</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>294769</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>RICARDO LUIS VALINO</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.507,02</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.839,63</t>
-        </is>
-      </c>
+          <t>VASTTU CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
@@ -5926,12 +5350,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5941,12 +5366,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>526091</t>
+          <t>404145</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>S TAFFURI CORRETORA DE SEGUROS L</t>
+          <t>W MEDEA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -6003,34 +5428,77 @@
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>531</v>
+      </c>
+      <c r="C65" t="n">
+        <v>990</v>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>428940</t>
+          <t>503604</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SANTOS JUNIO CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+          <t>W SILVA CORRETORA DE SEGUROS LTD</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>296823</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.928,37</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.365,88</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
@@ -6072,1012 +5540,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>400881</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>SEVERINO FERREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>531</v>
-      </c>
-      <c r="C67" t="n">
-        <v>990</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>485561</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>294280</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>MANOEL JOSE BUENO</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>10</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.177,49</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.264,38</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>531</v>
-      </c>
-      <c r="C68" t="n">
-        <v>990</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>485561</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>294370</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>PATRICIA APARECIDA DE FREITAS</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>10</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.434,76</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.614,44</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>531</v>
-      </c>
-      <c r="C69" t="n">
-        <v>990</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>485561</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>294601</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>GISELE CRISTINA ROSA ESPERANCA</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>10</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.324,70</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.422,46</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>531</v>
-      </c>
-      <c r="C70" t="n">
-        <v>927</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>508528</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>55109</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>ESMERALDA APARECIDA HORTENSE RIBEIRO PIERRE</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>2024-10-19</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2025-10-19</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>8</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 741,59</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 796,31</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>437267</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SUPINO CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>531</v>
-      </c>
-      <c r="C72" t="n">
-        <v>990</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>404259</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>VASTTU CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>294595</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>ROBERTO LIBORIO SCOLLO</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>10</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.620,56</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.740,15</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>404145</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>W MEDEA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>531</v>
-      </c>
-      <c r="C74" t="n">
-        <v>990</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>503604</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>W SILVA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>294567</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>GABRIELA DE PADUA FACONI</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>10</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.939,20</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.156,11</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>531</v>
-      </c>
-      <c r="C75" t="n">
-        <v>990</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>503604</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>W SILVA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>294919</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>JOSE CARLOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2024-10-23</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>6</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.260,65</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.353,68</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>355.733.588-71</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
